--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1339588.624015304</v>
+        <v>1443768.258466376</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.792004777351667</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,13 +718,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>314.9029209504225</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -801,7 +803,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034782</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>43.68610057445699</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>236.37411054271</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>212.6691646375095</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>94.81275980261576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1032,7 +1034,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>232.800587149425</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>49.0054375724962</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>161.6856864435865</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>66.25196157017365</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>152.8981130947576</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>88.58584547962765</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>20.95866062610927</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634785</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000776</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>198.4943254374936</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695349</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>18.70843787977265</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000799</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>28.54004930889236</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>176.1811323375807</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,7 +2250,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>120.8326485140809</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2324,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>54.31367585848631</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>111.3213230702089</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2615,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2722,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>60.64713141731118</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>174.7683347992599</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2959,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>107.4021082756243</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>171.1529885179048</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3089,13 +3091,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3193,10 +3195,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>206.7582264966224</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890341</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3670,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>75.94597652115795</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3721,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>201.749081730972</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>89.67992556049168</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>107.4021082756248</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>167.1115298725988</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>195.2208281702714</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1303.529887077737</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
         <v>934.5673701373257</v>
@@ -4325,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2437.723170258544</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180641</v>
+        <v>2437.723170258544</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919561</v>
+        <v>2437.723170258544</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943749</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992584</v>
@@ -4425,34 +4427,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>576.3720603698266</v>
+        <v>500.476813167026</v>
       </c>
       <c r="C4" t="n">
-        <v>532.2446860521933</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="D4" t="n">
-        <v>382.1280466398576</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574645</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>576.3720603698266</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>576.3720603698266</v>
+        <v>682.1252779972657</v>
       </c>
       <c r="X4" t="n">
-        <v>576.3720603698266</v>
+        <v>682.1252779972657</v>
       </c>
       <c r="Y4" t="n">
-        <v>576.3720603698266</v>
+        <v>682.1252779972657</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4562,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2746.967338392416</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.97538618064</v>
+        <v>2373.501580131336</v>
       </c>
       <c r="Y5" t="n">
-        <v>1976.204921733553</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4650,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>529.5785797246257</v>
+        <v>332.773976541745</v>
       </c>
       <c r="C7" t="n">
-        <v>360.6423967967188</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D7" t="n">
-        <v>360.6423967967188</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="X7" t="n">
-        <v>692.8974549201677</v>
+        <v>603.0669976776956</v>
       </c>
       <c r="Y7" t="n">
-        <v>529.5785797246257</v>
+        <v>382.2744185341654</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1944.904841306683</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3258.684648305965</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3052.706900690187</v>
       </c>
       <c r="U8" t="n">
-        <v>3060.872614656711</v>
+        <v>3052.706900690187</v>
       </c>
       <c r="V8" t="n">
-        <v>2729.809727313141</v>
+        <v>2721.644013346617</v>
       </c>
       <c r="W8" t="n">
-        <v>2377.041072043026</v>
+        <v>2721.644013346617</v>
       </c>
       <c r="X8" t="n">
-        <v>2377.041072043026</v>
+        <v>2721.644013346617</v>
       </c>
       <c r="Y8" t="n">
-        <v>1986.901740067214</v>
+        <v>2331.504681370805</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4874,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218339</v>
+        <v>155.9927684318073</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218339</v>
+        <v>155.9927684318073</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218339</v>
+        <v>155.9927684318073</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218339</v>
+        <v>155.9927684318073</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>155.9927684318073</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>155.9927684318073</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>155.9927684318073</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>899.7166415493873</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>610.6137746750309</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>355.929286469144</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W10" t="n">
-        <v>66.51211643218339</v>
+        <v>376.7853475753374</v>
       </c>
       <c r="X10" t="n">
-        <v>66.51211643218339</v>
+        <v>376.7853475753374</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.51211643218339</v>
+        <v>155.9927684318073</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468469</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962605</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589159</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143763</v>
+        <v>1670.092171589159</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143763</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>983.34034846144</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>782.8410298377091</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245714</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L15" t="n">
-        <v>776.17510664033</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266882</v>
+        <v>1670.092171589159</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143766</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>175.9033664000582</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5528,13 +5530,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M18" t="n">
-        <v>2817.800993781637</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N18" t="n">
-        <v>3445.398957336244</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O18" t="n">
-        <v>3997.308687575531</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>4420.931837070599</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>3118.73869457197</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>2949.802511644064</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>2799.685872231728</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>2651.772778649335</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851784</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S19" t="n">
-        <v>2351.089047197418</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T19" t="n">
-        <v>2131.487582220359</v>
+        <v>4471.231687421535</v>
       </c>
       <c r="U19" t="n">
-        <v>2131.487582220359</v>
+        <v>4293.270947686605</v>
       </c>
       <c r="V19" t="n">
-        <v>1876.803094014472</v>
+        <v>4038.586459480718</v>
       </c>
       <c r="W19" t="n">
-        <v>1587.385923977512</v>
+        <v>3749.169289443757</v>
       </c>
       <c r="X19" t="n">
-        <v>1359.396373079494</v>
+        <v>3521.17973854574</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>3300.38715940221</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397185</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.21291626627</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>2149.810879820877</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081859</v>
+        <v>3113.560578231862</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>2944.624395303955</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>2794.50775589162</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I22" t="n">
         <v>2337.686731866304</v>
@@ -5935,25 +5937,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S22" t="n">
-        <v>4690.833152398593</v>
+        <v>4568.77997208134</v>
       </c>
       <c r="T22" t="n">
-        <v>4690.833152398593</v>
+        <v>4349.178507104281</v>
       </c>
       <c r="U22" t="n">
-        <v>4517.069482196493</v>
+        <v>4060.103280448479</v>
       </c>
       <c r="V22" t="n">
-        <v>4262.384993990607</v>
+        <v>3805.418792242593</v>
       </c>
       <c r="W22" t="n">
-        <v>3972.967823953646</v>
+        <v>3516.001622205632</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.978273055629</v>
+        <v>3516.001622205632</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912098</v>
+        <v>3295.209043062102</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5981,58 +5983,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.7084350851671</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C25" t="n">
-        <v>527.7722521572603</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D25" t="n">
-        <v>377.6556127449245</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.74194400383</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797701</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154069</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="26">
@@ -6212,28 +6214,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6263,10 +6265,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673937</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>4227.652312159533</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>3972.967823953646</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>3972.967823953646</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>3744.978273055629</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912098</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6443,40 +6445,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2338.476105524075</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2338.476105524075</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>2049.400878868273</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662386</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468472</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468472</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>1802.364528928006</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O33" t="n">
-        <v>2354.274259167293</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.53722908186</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153954</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741618</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159225</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>4471.231687421537</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U34" t="n">
-        <v>4471.231687421537</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V34" t="n">
-        <v>4262.384993990605</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W34" t="n">
-        <v>3972.967823953645</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X34" t="n">
-        <v>3744.97827305563</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y34" t="n">
-        <v>3524.1856939121</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="35">
@@ -6917,37 +6919,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7023,16 +7025,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7166,13 +7168,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075809</v>
@@ -7190,16 +7192,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>352.5519571452613</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718132</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>849.3843576263199</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C40" t="n">
-        <v>680.448174698413</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>530.3315352860773</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>2187.395141638036</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.2863919474</v>
+        <v>1898.319914982233</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741513</v>
+        <v>1643.635426776346</v>
       </c>
       <c r="W40" t="n">
-        <v>1479.814952498107</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="X40" t="n">
-        <v>1251.82540160009</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y40" t="n">
-        <v>1031.03282245656</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7402,31 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3227.225672628157</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C43" t="n">
-        <v>3058.28948970025</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D43" t="n">
-        <v>2908.172850287915</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E43" t="n">
-        <v>2760.259756705521</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F43" t="n">
-        <v>2613.369809207611</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>2446.173709922491</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>4401.757925742791</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>4147.073437536905</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>3857.656267499944</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>3629.666716601927</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y43" t="n">
-        <v>3408.874137458397</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="44">
@@ -7628,31 +7630,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7728,22 +7730,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>244.2098454714573</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C46" t="n">
-        <v>847.644273983533</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711973</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2095.308724111328</v>
       </c>
       <c r="U46" t="n">
-        <v>2160.315914855604</v>
+        <v>1806.233497455525</v>
       </c>
       <c r="V46" t="n">
-        <v>1905.631426649717</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W46" t="n">
-        <v>1616.214256612757</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>813.3497091711304</v>
       </c>
     </row>
   </sheetData>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891665</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>20.0903279146012</v>
       </c>
     </row>
     <row r="14">
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23659,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>127.7255247667965</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>114.1584408891642</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>152.4862366927522</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>110.0033420516634</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24136,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>60.19363748756368</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>92.12028678808286</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>106.0841272570794</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>104.8770068749577</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -24655,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>111.4161395899842</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>73.62417772602025</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>80.98465480592321</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25081,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>45.3794168272056</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>141.4594738061303</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>84.77391660561901</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>55.74112246243956</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>32.89260457059906</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -26023,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>50.2939204546895</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>30.48882721876572</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>922068.6358465401</v>
+        <v>922068.6358465404</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>922068.6358465404</v>
+        <v>922068.6358465403</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>922068.6358465404</v>
+        <v>922068.6358465403</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>922068.6358465403</v>
+        <v>922068.6358465404</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>922068.6358465406</v>
+        <v>922068.6358465404</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>922068.6358465402</v>
+        <v>922068.6358465403</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>922068.6358465404</v>
+        <v>922068.6358465402</v>
       </c>
     </row>
     <row r="16">
@@ -26317,43 +26319,43 @@
         <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
+        <v>504466.6248062539</v>
+      </c>
+      <c r="F2" t="n">
+        <v>504466.6248062539</v>
+      </c>
+      <c r="G2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="H2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="I2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="J2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="F2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="G2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="H2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="I2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="L2" t="n">
         <v>504466.6248062539</v>
       </c>
-      <c r="K2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>504466.6248062538</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504466.6248062537</v>
       </c>
       <c r="N2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
     </row>
     <row r="3">
@@ -26372,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073558</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405246</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405262</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26476,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,40 +26521,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1017124.324227862</v>
+        <v>-1017124.324227861</v>
       </c>
       <c r="C6" t="n">
-        <v>311620.4214997314</v>
+        <v>311620.4214997313</v>
       </c>
       <c r="D6" t="n">
-        <v>311620.4214997316</v>
+        <v>311620.4214997313</v>
       </c>
       <c r="E6" t="n">
-        <v>63104.93713312433</v>
+        <v>63104.93713312355</v>
       </c>
       <c r="F6" t="n">
-        <v>388517.398940479</v>
+        <v>388517.3989404794</v>
       </c>
       <c r="G6" t="n">
-        <v>388517.3989404792</v>
+        <v>388517.39894048</v>
       </c>
       <c r="H6" t="n">
-        <v>388517.3989404788</v>
+        <v>388517.3989404793</v>
       </c>
       <c r="I6" t="n">
-        <v>388517.3989404792</v>
+        <v>388517.3989404794</v>
       </c>
       <c r="J6" t="n">
-        <v>170986.1965432019</v>
+        <v>170986.1965432016</v>
       </c>
       <c r="K6" t="n">
-        <v>388517.3989404792</v>
+        <v>388517.3989404793</v>
       </c>
       <c r="L6" t="n">
-        <v>388517.3989404793</v>
+        <v>388517.3989404794</v>
       </c>
       <c r="M6" t="n">
-        <v>303462.3710049676</v>
+        <v>303462.3710049674</v>
       </c>
       <c r="N6" t="n">
         <v>388517.3989404793</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26744,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26808,7 +26810,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26817,13 +26819,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>377.9418368861289</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27436,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>12.84933751971238</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>123.5607205241708</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27594,10 +27596,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>50.14888779388102</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>136.5718040799036</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>291.4251788534378</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>130.8265426094411</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27791,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>56.89896690850824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>42.93580021800219</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>98.09705886414437</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28029,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>7.766574930210439</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>198.5902886500599</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29044,7 +29046,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29220,7 +29222,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-2.053100445934254e-12</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29815,7 +29817,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>-4.452798631456116e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29970,7 +29972,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>370.9642309107728</v>
       </c>
       <c r="P12" t="n">
-        <v>391.9250669264634</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551115</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565744</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,10 +32311,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
@@ -32321,28 +32323,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>583.109613586858</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>512.9101366533177</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M24" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>338.1309585028985</v>
       </c>
       <c r="O30" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33289,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>334.769386094615</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33743,31 +33745,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>248.0319961154042</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P42" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>138.5955196772183</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>228.3679864663283</v>
       </c>
       <c r="P12" t="n">
-        <v>257.9506595121332</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075249</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>257.95065951213</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>440.9755796648397</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>370.3138922088733</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M24" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096306</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>35.97859357997653</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>206.7892464195652</v>
       </c>
       <c r="O30" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>200.7949786802847</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>110.1905571410452</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P42" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0.7540807028593151</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1443768.258466376</v>
+        <v>1439755.648452382</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>87.84875757168683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>314.9029209504225</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I3" t="n">
         <v>18.81721868247742</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>93.0557298047928</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>236.37411054271</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -949,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>212.6691646375095</v>
+        <v>78.78083674902027</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V6" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49.0054375724962</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>166.3544833279775</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>66.25196157017365</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>88.58584547962765</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>131.5522128412691</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.4943254374936</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000799</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>115.7063133373732</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>176.1811323375807</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0.6452826062320446</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2250,7 +2250,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>120.8326485140809</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,13 +2298,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>111.3213230702089</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>60.64713141731118</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>44.7513807668926</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2961,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>75.00788511618036</v>
       </c>
       <c r="V31" t="n">
-        <v>171.1529885179048</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>21.63824106824953</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>75.94597652115795</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>89.67992556049168</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>152.4905881546152</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>167.1115298725988</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>1664.678443125551</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1664.678443125551</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.723170258544</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2437.723170258544</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>2437.723170258544</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y2" t="n">
-        <v>2047.583838282732</v>
+        <v>2051.278283189673</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.476813167026</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="C4" t="n">
-        <v>331.5406302391191</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="D4" t="n">
-        <v>331.5406302391191</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="E4" t="n">
-        <v>331.5406302391191</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="W4" t="n">
-        <v>682.1252779972657</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="X4" t="n">
-        <v>682.1252779972657</v>
+        <v>2786.019198038207</v>
       </c>
       <c r="Y4" t="n">
-        <v>682.1252779972657</v>
+        <v>2565.226618894677</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410102</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2746.967338392416</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="X5" t="n">
-        <v>2373.501580131336</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y5" t="n">
-        <v>2373.501580131336</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
@@ -4643,25 +4643,25 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>332.773976541745</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>163.8377936138381</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4749,28 +4749,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>603.0669976776956</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>382.2744185341654</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1944.904841306683</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C8" t="n">
-        <v>1575.942324366272</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>985.1133520179767</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>985.1133520179767</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>574.1274472283692</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912092</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3258.684648305965</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3052.706900690187</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3052.706900690187</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2721.644013346617</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2721.644013346617</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X8" t="n">
-        <v>2721.644013346617</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y8" t="n">
-        <v>2331.504681370805</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4889,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>155.9927684318073</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C10" t="n">
-        <v>155.9927684318073</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D10" t="n">
-        <v>155.9927684318073</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>155.9927684318073</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>155.9927684318073</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>155.9927684318073</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>155.9927684318073</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4971,43 +4971,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>666.202517612298</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>376.7853475753374</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>376.7853475753374</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y10" t="n">
-        <v>155.9927684318073</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="11">
@@ -5029,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075814</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5059,13 +5059,13 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492579</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468476</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962607</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589159</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589159</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>782.8410298377091</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>983.34034846144</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>782.8410298377091</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852257</v>
@@ -5305,25 +5305,25 @@
         <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468476</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962607</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589159</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143766</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580262</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5518,16 +5518,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5597,25 +5597,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3118.73869457197</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>2949.802511644064</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>2799.685872231728</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>2651.772778649335</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>2504.882831151424</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4690.833152398593</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>4690.833152398593</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>4471.231687421535</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>4293.270947686605</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>4038.586459480718</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>3749.169289443757</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>3521.17973854574</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>3300.38715940221</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5746,19 +5746,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5770,10 +5770,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3113.560578231862</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>2944.624395303955</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D22" t="n">
-        <v>2794.50775589162</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E22" t="n">
-        <v>2646.594662309226</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4568.77997208134</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>4349.178507104281</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>4060.103280448479</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>3805.418792242593</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W22" t="n">
-        <v>3516.001622205632</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X22" t="n">
-        <v>3516.001622205632</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y22" t="n">
-        <v>3295.209043062102</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5980,22 +5980,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6007,34 +6007,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832228</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>634.9279362553159</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.74194400383</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797701</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832659</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832659</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2267.47159895366</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.396372297858</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1723.711884091971</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134625</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,16 +6214,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6232,16 +6232,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6265,10 +6265,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6314,19 +6314,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925216</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E28" t="n">
-        <v>296.7882229101285</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>296.7882229101285</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2401.759668664207</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2182.158203687148</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="29">
@@ -6445,16 +6445,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6463,19 +6463,19 @@
         <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.777212765616</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>782.8410298377091</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2044.506784258106</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V31" t="n">
-        <v>1871.624977674364</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W31" t="n">
-        <v>1582.207807637403</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X31" t="n">
-        <v>1354.218256739386</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>1133.425677595856</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6739,10 +6739,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6782,19 +6782,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.8641191832229</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.396372297858</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1723.711884091971</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>985.5125840134626</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6928,28 +6928,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.777212765616</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>782.8410298377091</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7362,22 +7362,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2187.395141638036</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1898.319914982233</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1643.635426776346</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1354.218256739386</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1354.218256739386</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595856</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7493,25 +7493,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>733.4550657171301</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C43" t="n">
-        <v>564.5188827892232</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D43" t="n">
-        <v>414.4022433768874</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
-        <v>266.4891497944943</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1823.430183384634</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1568.745695178747</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588917</v>
+        <v>1279.328525141787</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.1035305473698</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2095.308724111328</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1806.233497455525</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1551.549009249638</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.131839212678</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1034.14228831466</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>813.3497091711304</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>20.0903279146012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891642</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>110.0033420516634</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.1866975757052</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>60.19363748756368</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>106.0841272570794</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>104.8770068749577</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>136.274905234752</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>211.1765892730638</v>
       </c>
       <c r="V31" t="n">
-        <v>80.98465480592321</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>141.4594738061303</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>55.74112246243956</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>50.2939204546895</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>922068.6358465404</v>
+        <v>922068.6358465402</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>922068.6358465404</v>
+        <v>922068.6358465403</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>922068.6358465403</v>
+        <v>922068.6358465402</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>922068.6358465403</v>
+        <v>922068.6358465402</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>922068.6358465403</v>
+        <v>922068.6358465402</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>922068.6358465404</v>
+        <v>922068.6358465403</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>922068.6358465404</v>
+        <v>922068.6358465402</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>922068.6358465403</v>
+        <v>922068.6358465402</v>
       </c>
     </row>
   </sheetData>
@@ -26322,16 +26322,16 @@
         <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
         <v>504466.6248062538</v>
@@ -26340,13 +26340,13 @@
         <v>504466.6248062537</v>
       </c>
       <c r="K2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="L2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="L2" t="n">
-        <v>504466.6248062539</v>
-      </c>
       <c r="M2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="N2" t="n">
         <v>504466.6248062538</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073558</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405252</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1017124.324227861</v>
       </c>
       <c r="C6" t="n">
-        <v>311620.4214997313</v>
+        <v>311620.4214997311</v>
       </c>
       <c r="D6" t="n">
-        <v>311620.4214997313</v>
+        <v>311620.4214997311</v>
       </c>
       <c r="E6" t="n">
-        <v>63104.93713312355</v>
+        <v>62757.55787876682</v>
       </c>
       <c r="F6" t="n">
-        <v>388517.3989404794</v>
+        <v>388170.0196861224</v>
       </c>
       <c r="G6" t="n">
-        <v>388517.39894048</v>
+        <v>388170.0196861225</v>
       </c>
       <c r="H6" t="n">
-        <v>388517.3989404793</v>
+        <v>388170.0196861222</v>
       </c>
       <c r="I6" t="n">
-        <v>388517.3989404794</v>
+        <v>388170.0196861223</v>
       </c>
       <c r="J6" t="n">
-        <v>170986.1965432016</v>
+        <v>170638.8172888448</v>
       </c>
       <c r="K6" t="n">
-        <v>388517.3989404793</v>
+        <v>388170.0196861221</v>
       </c>
       <c r="L6" t="n">
-        <v>388517.3989404794</v>
+        <v>388170.0196861223</v>
       </c>
       <c r="M6" t="n">
-        <v>303462.3710049674</v>
+        <v>303114.9917506104</v>
       </c>
       <c r="N6" t="n">
-        <v>388517.3989404793</v>
+        <v>388170.0196861223</v>
       </c>
       <c r="O6" t="n">
-        <v>388517.3989404793</v>
+        <v>388170.0196861224</v>
       </c>
       <c r="P6" t="n">
-        <v>388517.3989404793</v>
+        <v>388170.0196861223</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>266.8342840489961</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>12.84933751971238</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>86.77625037714449</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27551,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>50.14888779388102</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>136.5718040799036</v>
+        <v>270.4601319683927</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>130.8265426094411</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>244.5672423254759</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>42.93580021800219</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>7.766574930210439</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,13 +28070,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>94.15744254776803</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29046,7 +29046,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29222,7 +29222,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>-2.053100445934254e-12</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107728</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214701</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31925,31 +31925,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
         <v>0.1345549672467222</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862125</v>
+        <v>650.2626573149951</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071789</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565744</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32162,31 +32162,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
         <v>0.1345549672467222</v>
@@ -32317,10 +32317,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>535.8585467435948</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32554,28 +32554,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32791,10 +32791,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32967,7 +32967,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33034,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>338.1309585028985</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33502,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,22 +33982,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34213,10 +34213,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>535.8585467435948</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34450,28 +34450,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674334</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663283</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071399</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674334</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641942</v>
+        <v>508.1286233929767</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238456</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>257.95065951213</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35965,10 +35965,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>393.2623022991504</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>263.67989750701</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096306</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
         <v>394.3420143191314</v>
@@ -36615,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36682,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>206.7892464195652</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37150,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,22 +37630,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37861,10 +37861,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>393.2623022991504</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38098,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1439755.648452382</v>
+        <v>1441516.178755167</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283193</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>87.84875757168683</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>387.9826382831808</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93.0557298047928</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>107.3504831369563</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>78.78083674902027</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>58.28185552386351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>166.3544833279775</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>168.6014794811249</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>58.28185552386346</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>131.5522128412691</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>102.1557845699818</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>28.23631843387907</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>41.02686156550228</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>115.7063133373732</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6452826062320446</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,16 +2247,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>44.7513807668926</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>150.2480931018394</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>53.07327741456131</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,19 +3006,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>75.00788511618036</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>173.7494376284334</v>
       </c>
     </row>
     <row r="35">
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>21.63824106824953</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="41">
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>152.4905881546152</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1664.678443125551</v>
+        <v>2028.49958832462</v>
       </c>
       <c r="C2" t="n">
-        <v>1664.678443125551</v>
+        <v>1659.537071384209</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>1301.271372777458</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>915.483120179214</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450753</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189673</v>
+        <v>2415.099428388742</v>
       </c>
       <c r="Y2" t="n">
-        <v>2051.278283189673</v>
+        <v>2415.099428388742</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2471.230932223169</v>
+        <v>739.2385409879448</v>
       </c>
       <c r="C4" t="n">
-        <v>2471.230932223169</v>
+        <v>570.3023580600379</v>
       </c>
       <c r="D4" t="n">
-        <v>2471.230932223169</v>
+        <v>420.1857186477022</v>
       </c>
       <c r="E4" t="n">
-        <v>2471.230932223169</v>
+        <v>272.2726250653091</v>
       </c>
       <c r="F4" t="n">
-        <v>2471.230932223169</v>
+        <v>272.2726250653091</v>
       </c>
       <c r="G4" t="n">
-        <v>2471.230932223169</v>
+        <v>272.2726250653091</v>
       </c>
       <c r="H4" t="n">
-        <v>2471.230932223169</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>3235.775364366698</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>3014.008748936224</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>3014.008748936224</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>3014.008748936224</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>3014.008748936224</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>2786.019198038207</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y4" t="n">
-        <v>2565.226618894677</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="5">
@@ -4606,10 +4606,10 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2345.167438673965</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>2345.167438673965</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y5" t="n">
         <v>2345.167438673965</v>
@@ -4637,31 +4637,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218342</v>
@@ -4770,7 +4770,7 @@
         <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1712.341567565139</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C8" t="n">
-        <v>1343.379050624727</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
-        <v>985.1133520179767</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>985.1133520179767</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>574.1274472283692</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4837,19 +4837,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3045.010628407857</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2713.947741064286</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866152</v>
+        <v>2361.179085794172</v>
       </c>
       <c r="X8" t="n">
-        <v>2489.080739605072</v>
+        <v>1987.713327533092</v>
       </c>
       <c r="Y8" t="n">
-        <v>2098.941407629261</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4889,34 +4889,34 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>385.5649387724261</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445192</v>
+        <v>570.3023580600383</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>420.1857186477025</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>272.2726250653094</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>125.382677567399</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>125.382677567399</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>125.382677567399</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4971,43 +4971,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>788.005982746196</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>567.2134036026658</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="11">
@@ -5020,70 +5020,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5132,7 +5132,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>241.729756630365</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797189</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>122.3381968195669</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5424,58 +5424,58 @@
         <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>261.012762333092</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
         <v>1277.309669727408</v>
@@ -5497,25 +5497,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075805</v>
@@ -5524,13 +5524,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5767,13 +5767,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5946,16 +5946,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1755.431557602304</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1466.014387565343</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1238.024836667326</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1017.232257523796</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5986,25 +5986,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6220,25 +6220,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,7 +6262,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>718.5507239167111</v>
+        <v>718.550723916711</v>
       </c>
       <c r="C28" t="n">
-        <v>549.6145409888043</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888043</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6411,16 +6411,16 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2401.759668664207</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2182.158203687148</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1893.082977031346</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1638.398488825459</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
         <v>1348.981318788498</v>
@@ -6429,7 +6429,7 @@
         <v>1120.991767890481</v>
       </c>
       <c r="Y28" t="n">
-        <v>900.1991887469509</v>
+        <v>900.1991887469508</v>
       </c>
     </row>
     <row r="29">
@@ -6445,37 +6445,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,28 +6484,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2393.353712454441</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2210.498878109345</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1990.897413132287</v>
       </c>
       <c r="U31" t="n">
-        <v>1901.695539989114</v>
+        <v>1701.822186476484</v>
       </c>
       <c r="V31" t="n">
-        <v>1647.011051783227</v>
+        <v>1447.137698270597</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1157.720528233637</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>929.7309773356194</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>244.7670222746419</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7174,19 +7174,19 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>580.8993044876688</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>430.7826650753331</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>282.8695714929399</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>869.6905094135296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
         <v>402.7245934908939</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1823.430183384634</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1568.745695178747</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1279.328525141787</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1051.338974243769</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.338974243769</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>46.45968844823057</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>53.02951788468647</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>176.378588761786</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.1866975757052</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>136.274905234752</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>136.2749052347516</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>13.30196929556038</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>211.1765892730638</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>44.83521572366135</v>
       </c>
     </row>
     <row r="35">
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>123.7828069546817</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="41">
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.693886234629</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>922068.6358465402</v>
+        <v>922068.6358465403</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>922068.6358465402</v>
+        <v>922068.6358465403</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>922068.6358465403</v>
+        <v>922068.6358465402</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>922068.6358465402</v>
+        <v>922068.6358465403</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>922068.6358465403</v>
+        <v>922068.6358465402</v>
       </c>
     </row>
     <row r="14">
@@ -26322,34 +26322,34 @@
         <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="G2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062535</v>
       </c>
       <c r="K2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="L2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="M2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="O2" t="n">
         <v>504466.6248062538</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26524,46 +26524,46 @@
         <v>-1017124.324227861</v>
       </c>
       <c r="C6" t="n">
-        <v>311620.4214997311</v>
+        <v>311620.4214997309</v>
       </c>
       <c r="D6" t="n">
         <v>311620.4214997311</v>
       </c>
       <c r="E6" t="n">
-        <v>62757.55787876682</v>
+        <v>63070.19920768836</v>
       </c>
       <c r="F6" t="n">
-        <v>388170.0196861224</v>
+        <v>388482.6610150435</v>
       </c>
       <c r="G6" t="n">
-        <v>388170.0196861225</v>
+        <v>388482.6610150434</v>
       </c>
       <c r="H6" t="n">
-        <v>388170.0196861222</v>
+        <v>388482.6610150435</v>
       </c>
       <c r="I6" t="n">
-        <v>388170.0196861223</v>
+        <v>388482.6610150435</v>
       </c>
       <c r="J6" t="n">
-        <v>170638.8172888448</v>
+        <v>170951.458617766</v>
       </c>
       <c r="K6" t="n">
-        <v>388170.0196861221</v>
+        <v>388482.6610150434</v>
       </c>
       <c r="L6" t="n">
-        <v>388170.0196861223</v>
+        <v>388482.6610150434</v>
       </c>
       <c r="M6" t="n">
-        <v>303114.9917506104</v>
+        <v>303427.6330795316</v>
       </c>
       <c r="N6" t="n">
-        <v>388170.0196861223</v>
+        <v>388482.6610150434</v>
       </c>
       <c r="O6" t="n">
-        <v>388170.0196861224</v>
+        <v>388482.6610150436</v>
       </c>
       <c r="P6" t="n">
-        <v>388170.0196861223</v>
+        <v>388482.6610150436</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>266.8342840489961</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>18.89340745853065</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86.77625037714449</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27554,10 +27554,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>37.40453177736451</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>270.4601319683927</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>307.4571019070333</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>160.3027978282313</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>244.5672423254759</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27909,10 +27909,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>82.39369247777711</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>38.07056488597463</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>94.15744254776803</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>650.2626573149951</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>508.1286233929767</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
